--- a/KSS-KA1_prubezneHodnoceniV02.xlsx
+++ b/KSS-KA1_prubezneHodnoceniV02.xlsx
@@ -162,12 +162,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -244,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -274,6 +286,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V11" sqref="V11"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,95 +609,95 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23" t="s">
+      <c r="O4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23" t="s">
+      <c r="Q4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23" t="s">
+      <c r="S4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23" t="s">
+      <c r="U4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,8 +752,8 @@
       <c r="U5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -794,310 +816,318 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="27">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="28" t="str">
         <f>IF(Sheet0!D8&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="27">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="28" t="str">
         <f>IF(Sheet0!F8&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="27">
         <v>19</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="28" t="str">
         <f>IF(Sheet0!H8&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="27">
         <v>5.5</v>
       </c>
-      <c r="K8" s="3" t="str">
+      <c r="K8" s="28" t="str">
         <f>IF(Sheet0!J8&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="27">
         <v>11</v>
       </c>
-      <c r="M8" s="3" t="str">
+      <c r="M8" s="28" t="str">
         <f>IF(Sheet0!L8&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="27">
         <v>3</v>
       </c>
-      <c r="O8" s="3" t="str">
+      <c r="O8" s="28" t="str">
         <f>IF(Sheet0!N8&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="27">
         <v>10</v>
       </c>
-      <c r="Q8" s="3" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IF(Sheet0!P8&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="3" t="str">
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="28" t="str">
         <f>IF(Sheet0!R8&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="27">
+        <v>30</v>
+      </c>
+      <c r="U8" s="28" t="str">
+        <f>IF(Sheet0!T8&gt;=0,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="V8" s="28">
+        <f>SUM(Sheet0!D8,Sheet0!F8,Sheet0!H8,Sheet0!J8,Sheet0!L8,Sheet0!N8,Sheet0!P8,Sheet0!R8,Sheet0!T8)</f>
+        <v>97.5</v>
+      </c>
+      <c r="W8" s="28" t="str">
+        <f>IF(Sheet0!V8&gt;360,"A","N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="3" t="str">
-        <f>IF(Sheet0!T8&gt;=0,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="V8" s="3">
-        <f>SUM(Sheet0!D8,Sheet0!F8,Sheet0!H8,Sheet0!J8,Sheet0!L8,Sheet0!N8,Sheet0!P8,Sheet0!R8,Sheet0!T8)</f>
-        <v>89.5</v>
-      </c>
-      <c r="W8" s="3" t="str">
-        <f>IF(Sheet0!V8&gt;360,"A","N")</f>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D9" s="24">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="25" t="str">
         <f>IF(Sheet0!D9&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="24">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(Sheet0!F9&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="24">
         <v>19</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="25" t="str">
         <f>IF(Sheet0!H9&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="24">
         <v>8.5</v>
       </c>
-      <c r="K9" s="3" t="str">
+      <c r="K9" s="25" t="str">
         <f>IF(Sheet0!J9&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="24">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="25" t="str">
         <f>IF(Sheet0!L9&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="24">
         <v>7</v>
       </c>
-      <c r="O9" s="3" t="str">
+      <c r="O9" s="25" t="str">
         <f>IF(Sheet0!N9&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="24">
         <v>10</v>
       </c>
-      <c r="Q9" s="3" t="str">
+      <c r="Q9" s="25" t="str">
         <f>IF(Sheet0!P9&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="3" t="str">
+      <c r="R9" s="24">
+        <v>8</v>
+      </c>
+      <c r="S9" s="25" t="str">
         <f>IF(Sheet0!R9&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="24">
         <v>5</v>
       </c>
-      <c r="U9" s="3" t="str">
+      <c r="U9" s="25" t="str">
         <f>IF(Sheet0!T9&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="25">
         <f>SUM(Sheet0!D9,Sheet0!F9,Sheet0!H9,Sheet0!J9,Sheet0!L9,Sheet0!N9,Sheet0!P9,Sheet0!R9,Sheet0!T9)</f>
-        <v>79.5</v>
-      </c>
-      <c r="W9" s="3" t="str">
+        <v>87.5</v>
+      </c>
+      <c r="W9" s="25" t="str">
         <f>IF(Sheet0!V9&gt;360,"A","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="27">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="28" t="str">
         <f>IF(Sheet0!D10&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="27">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="28" t="str">
         <f>IF(Sheet0!F10&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="27">
         <v>11</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="28" t="str">
         <f>IF(Sheet0!H10&gt;10.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J10" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="K10" s="3" t="str">
+      <c r="J10" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="K10" s="28" t="str">
         <f>IF(Sheet0!J10&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="27">
         <v>11</v>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="28" t="str">
         <f>IF(Sheet0!L10&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N10" s="4">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="str">
+      <c r="N10" s="27">
+        <v>12</v>
+      </c>
+      <c r="O10" s="28" t="str">
         <f>IF(Sheet0!N10&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="27">
         <v>10</v>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="28" t="str">
         <f>IF(Sheet0!P10&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3" t="str">
+      <c r="R10" s="27">
+        <v>2</v>
+      </c>
+      <c r="S10" s="28" t="str">
         <f>IF(Sheet0!R10&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="27">
         <v>3</v>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="28" t="str">
         <f>IF(Sheet0!T10&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="28">
         <f>SUM(Sheet0!D10,Sheet0!F10,Sheet0!H10,Sheet0!J10,Sheet0!L10,Sheet0!N10,Sheet0!P10,Sheet0!R10,Sheet0!T10)</f>
-        <v>64.5</v>
-      </c>
-      <c r="W10" s="3" t="str">
+        <v>80.5</v>
+      </c>
+      <c r="W10" s="28" t="str">
         <f>IF(Sheet0!V10&gt;360,"A","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="27">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="28" t="str">
         <f>IF(Sheet0!D11&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="27">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="28" t="str">
         <f>IF(Sheet0!F11&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="27">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="28" t="str">
         <f>IF(Sheet0!H11&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="27">
         <v>16</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="K11" s="28" t="str">
         <f>IF(Sheet0!J11&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="27">
         <v>11</v>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="28" t="str">
         <f>IF(Sheet0!L11&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="27">
         <v>14</v>
       </c>
-      <c r="O11" s="3" t="str">
+      <c r="O11" s="28" t="str">
         <f>IF(Sheet0!N11&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="27">
         <v>10</v>
       </c>
-      <c r="Q11" s="3" t="str">
+      <c r="Q11" s="28" t="str">
         <f>IF(Sheet0!P11&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="3" t="str">
+      <c r="R11" s="27">
+        <v>2</v>
+      </c>
+      <c r="S11" s="28" t="str">
         <f>IF(Sheet0!R11&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="27">
         <v>10</v>
       </c>
-      <c r="U11" s="3" t="str">
+      <c r="U11" s="28" t="str">
         <f>IF(Sheet0!T11&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="28">
         <f>SUM(Sheet0!D11,Sheet0!F11,Sheet0!H11,Sheet0!J11,Sheet0!L11,Sheet0!N11,Sheet0!P11,Sheet0!R11,Sheet0!T11)</f>
-        <v>99</v>
-      </c>
-      <c r="W11" s="3" t="str">
+        <v>101</v>
+      </c>
+      <c r="W11" s="28" t="str">
         <f>IF(Sheet0!V11&gt;360,"A","N")</f>
         <v>N</v>
       </c>
@@ -1163,233 +1193,239 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="24">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="25" t="str">
         <f>IF(Sheet0!D13&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="24">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="25" t="str">
         <f>IF(Sheet0!F13&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="24">
         <v>19</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="25" t="str">
         <f>IF(Sheet0!H13&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J13" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K13" s="3" t="str">
+      <c r="J13" s="24">
+        <v>16</v>
+      </c>
+      <c r="K13" s="25" t="str">
         <f>IF(Sheet0!J13&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="24">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="25" t="str">
         <f>IF(Sheet0!L13&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N13" s="4">
-        <v>6</v>
-      </c>
-      <c r="O13" s="3" t="str">
+      <c r="N13" s="24">
+        <v>16</v>
+      </c>
+      <c r="O13" s="25" t="str">
         <f>IF(Sheet0!N13&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="24">
         <v>10</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" s="25" t="str">
         <f>IF(Sheet0!P13&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="3" t="str">
+      <c r="R13" s="24">
+        <v>13</v>
+      </c>
+      <c r="S13" s="25" t="str">
         <f>IF(Sheet0!R13&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="24">
         <v>13</v>
       </c>
-      <c r="U13" s="3" t="str">
+      <c r="U13" s="25" t="str">
         <f>IF(Sheet0!T13&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="25">
         <f>SUM(Sheet0!D13,Sheet0!F13,Sheet0!H13,Sheet0!J13,Sheet0!L13,Sheet0!N13,Sheet0!P13,Sheet0!R13,Sheet0!T13)</f>
-        <v>92.5</v>
-      </c>
-      <c r="W13" s="3" t="str">
+        <v>117</v>
+      </c>
+      <c r="W13" s="25" t="str">
         <f>IF(Sheet0!V13&gt;360,"A","N")</f>
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="27">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="28" t="str">
         <f>IF(Sheet0!D14&gt;4.2,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="27">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="28" t="str">
         <f>IF(Sheet0!F14&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="27">
         <v>19</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(Sheet0!H14&gt;11.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="J14" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="K14" s="3" t="str">
+      <c r="J14" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="K14" s="28" t="str">
         <f>IF(Sheet0!J14&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="27">
         <v>11</v>
       </c>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="28" t="str">
         <f>IF(Sheet0!L14&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="27">
         <v>13</v>
       </c>
-      <c r="O14" s="3" t="str">
+      <c r="O14" s="28" t="str">
         <f>IF(Sheet0!N14&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="27">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" s="28" t="str">
         <f>IF(Sheet0!P14&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3" t="str">
+      <c r="R14" s="27">
+        <v>2</v>
+      </c>
+      <c r="S14" s="28" t="str">
         <f>IF(Sheet0!R14&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="27">
+        <v>13</v>
+      </c>
+      <c r="U14" s="28" t="str">
+        <f>IF(Sheet0!T14&gt;=0,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="V14" s="28">
+        <f>SUM(Sheet0!D14,Sheet0!F14,Sheet0!H14,Sheet0!J14,Sheet0!L14,Sheet0!N14,Sheet0!P14,Sheet0!R14,Sheet0!T14)</f>
+        <v>99.5</v>
+      </c>
+      <c r="W14" s="28" t="str">
+        <f>IF(Sheet0!V14&gt;360,"A","N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="27">
+        <v>7</v>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>IF(Sheet0!D15&gt;4.2,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="F15" s="27">
         <v>12</v>
       </c>
-      <c r="U14" s="3" t="str">
-        <f>IF(Sheet0!T14&gt;=0,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="V14" s="3">
-        <f>SUM(Sheet0!D14,Sheet0!F14,Sheet0!H14,Sheet0!J14,Sheet0!L14,Sheet0!N14,Sheet0!P14,Sheet0!R14,Sheet0!T14)</f>
-        <v>95.5</v>
-      </c>
-      <c r="W14" s="3" t="str">
-        <f>IF(Sheet0!V14&gt;360,"A","N")</f>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="G15" s="28" t="str">
+        <f>IF(Sheet0!F15&gt;11.9,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="H15" s="27">
+        <v>19</v>
+      </c>
+      <c r="I15" s="28" t="str">
+        <f>IF(Sheet0!H15&gt;11.9,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="J15" s="27">
+        <v>13</v>
+      </c>
+      <c r="K15" s="28" t="str">
+        <f>IF(Sheet0!J15&gt;=0,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="L15" s="27">
+        <v>11</v>
+      </c>
+      <c r="M15" s="28" t="str">
+        <f>IF(Sheet0!L15&gt;9.9,"A","N")</f>
+        <v>A</v>
+      </c>
+      <c r="N15" s="27">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="str">
-        <f>IF(Sheet0!D15&gt;4.2,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="F15" s="4">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f>IF(Sheet0!F15&gt;11.9,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="H15" s="4">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f>IF(Sheet0!H15&gt;11.9,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="J15" s="4">
-        <v>13</v>
-      </c>
-      <c r="K15" s="3" t="str">
-        <f>IF(Sheet0!J15&gt;=0,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="L15" s="4">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3" t="str">
-        <f>IF(Sheet0!L15&gt;9.9,"A","N")</f>
-        <v>A</v>
-      </c>
-      <c r="N15" s="4">
-        <v>7</v>
-      </c>
-      <c r="O15" s="3" t="str">
+      <c r="O15" s="28" t="str">
         <f>IF(Sheet0!N15&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="27">
         <v>10</v>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" s="28" t="str">
         <f>IF(Sheet0!P15&gt;9.9,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3" t="str">
+      <c r="R15" s="27">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28" t="str">
         <f>IF(Sheet0!R15&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="27">
         <v>3</v>
       </c>
-      <c r="U15" s="3" t="str">
+      <c r="U15" s="28" t="str">
         <f>IF(Sheet0!T15&gt;=0,"A","N")</f>
         <v>A</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="28">
         <f>SUM(Sheet0!D15,Sheet0!F15,Sheet0!H15,Sheet0!J15,Sheet0!L15,Sheet0!N15,Sheet0!P15,Sheet0!R15,Sheet0!T15)</f>
         <v>82</v>
       </c>
-      <c r="W15" s="3" t="str">
+      <c r="W15" s="28" t="str">
         <f>IF(Sheet0!V15&gt;360,"A","N")</f>
         <v>N</v>
       </c>
@@ -1438,95 +1474,95 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="38.4" x14ac:dyDescent="0.7">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23" t="s">
+      <c r="O4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23" t="s">
+      <c r="Q4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23" t="s">
+      <c r="S4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23" t="s">
+      <c r="U4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1581,8 +1617,8 @@
       <c r="U5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1705,7 +1741,7 @@
       </c>
       <c r="V8" s="3">
         <f>SUM(Sheet0!D8,Sheet0!F8,Sheet0!H8,Sheet0!J8,Sheet0!L8,Sheet0!N8,Sheet0!P8,Sheet0!R8,Sheet0!T8)</f>
-        <v>89.5</v>
+        <v>97.5</v>
       </c>
       <c r="W8" s="3" t="str">
         <f>IF(Sheet0!V8&gt;360,"A","N")</f>
@@ -1774,7 +1810,7 @@
       </c>
       <c r="V9" s="3">
         <f>SUM(Sheet0!D9,Sheet0!F9,Sheet0!H9,Sheet0!J9,Sheet0!L9,Sheet0!N9,Sheet0!P9,Sheet0!R9,Sheet0!T9)</f>
-        <v>79.5</v>
+        <v>87.5</v>
       </c>
       <c r="W9" s="3" t="str">
         <f>IF(Sheet0!V9&gt;360,"A","N")</f>
@@ -1841,7 +1877,7 @@
       </c>
       <c r="V10" s="3">
         <f>SUM(Sheet0!D10,Sheet0!F10,Sheet0!H10,Sheet0!J10,Sheet0!L10,Sheet0!N10,Sheet0!P10,Sheet0!R10,Sheet0!T10)</f>
-        <v>64.5</v>
+        <v>80.5</v>
       </c>
       <c r="W10" s="3" t="str">
         <f>IF(Sheet0!V10&gt;360,"A","N")</f>
@@ -1910,7 +1946,7 @@
       </c>
       <c r="V11" s="3">
         <f>SUM(Sheet0!D11,Sheet0!F11,Sheet0!H11,Sheet0!J11,Sheet0!L11,Sheet0!N11,Sheet0!P11,Sheet0!R11,Sheet0!T11)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="W11" s="3" t="str">
         <f>IF(Sheet0!V11&gt;360,"A","N")</f>
@@ -2038,7 +2074,7 @@
       </c>
       <c r="V13" s="3">
         <f>SUM(Sheet0!D13,Sheet0!F13,Sheet0!H13,Sheet0!J13,Sheet0!L13,Sheet0!N13,Sheet0!P13,Sheet0!R13,Sheet0!T13)</f>
-        <v>92.5</v>
+        <v>117</v>
       </c>
       <c r="W13" s="3" t="str">
         <f>IF(Sheet0!V13&gt;360,"A","N")</f>
@@ -2105,7 +2141,7 @@
       </c>
       <c r="V14" s="3">
         <f>SUM(Sheet0!D14,Sheet0!F14,Sheet0!H14,Sheet0!J14,Sheet0!L14,Sheet0!N14,Sheet0!P14,Sheet0!R14,Sheet0!T14)</f>
-        <v>95.5</v>
+        <v>99.5</v>
       </c>
       <c r="W14" s="3" t="str">
         <f>IF(Sheet0!V14&gt;360,"A","N")</f>
